--- a/Total_usd.xlsx
+++ b/Total_usd.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,16 +479,20 @@
       <c r="A2" t="n">
         <v>1003</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>45293</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Michael Johnson</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>45298</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>99.98999999999999</v>
@@ -511,16 +511,20 @@
       <c r="A3" t="n">
         <v>1005</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>45294</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>David Wilson</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>45299</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>149.99</v>
@@ -539,16 +543,20 @@
       <c r="A4" t="n">
         <v>1006</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>45294</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Lisa Taylor</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>45297</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>79.98999999999999</v>
@@ -567,16 +575,20 @@
       <c r="A5" t="n">
         <v>1008</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>45295</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Sarah Anderson</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>45300</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>69.98999999999999</v>
@@ -595,16 +607,20 @@
       <c r="A6" t="n">
         <v>1010</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>45296</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Kimberly Garcia</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>45299</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>199.99</v>
@@ -623,16 +639,20 @@
       <c r="A7" t="n">
         <v>1011</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>45297</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>William Hernandez</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>45298</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>29.99</v>
@@ -651,16 +671,20 @@
       <c r="A8" t="n">
         <v>1012</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>45297</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Melissa Lopez</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>45299</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>79.98999999999999</v>
@@ -679,16 +703,20 @@
       <c r="A9" t="n">
         <v>1013</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>45298</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Richard Perez</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>45300</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
       </c>
       <c r="E9" t="n">
         <v>49.99</v>
@@ -707,16 +735,20 @@
       <c r="A10" t="n">
         <v>1016</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>45299</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Amanda Martinez</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>45303</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
       </c>
       <c r="E10" t="n">
         <v>149.99</v>
@@ -735,16 +767,20 @@
       <c r="A11" t="n">
         <v>1017</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>45300</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>James Johnson</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>45305</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
       </c>
       <c r="E11" t="n">
         <v>69.98999999999999</v>
@@ -763,16 +799,20 @@
       <c r="A12" t="n">
         <v>1019</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>45301</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>Daniel Smith</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>45302</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
       </c>
       <c r="E12" t="n">
         <v>199.99</v>
@@ -791,16 +831,20 @@
       <c r="A13" t="n">
         <v>1020</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>45301</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>Jennifer Davis</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>45305</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
       </c>
       <c r="E13" t="n">
         <v>29.99</v>
@@ -819,16 +863,20 @@
       <c r="A14" t="n">
         <v>1021</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>45302</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>Michael Garcia</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>45305</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>79.98999999999999</v>
@@ -847,16 +895,20 @@
       <c r="A15" t="n">
         <v>1022</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>45302</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>Amy Hernandez</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>45306</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
       </c>
       <c r="E15" t="n">
         <v>49.99</v>
@@ -875,16 +927,20 @@
       <c r="A16" t="n">
         <v>1025</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>45304</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>David Wilson</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>45308</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>149.99</v>
@@ -903,16 +959,20 @@
       <c r="A17" t="n">
         <v>1026</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>45304</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>Sarah Smith</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>45305</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>69.98999999999999</v>
@@ -931,16 +991,20 @@
       <c r="A18" t="n">
         <v>1028</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>45305</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>Emily Davis</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>45310</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
       </c>
       <c r="E18" t="n">
         <v>199.99</v>
@@ -959,16 +1023,20 @@
       <c r="A19" t="n">
         <v>1029</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>45306</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>Daniel Wilson</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>45310</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>29.99</v>
@@ -987,16 +1055,20 @@
       <c r="A20" t="n">
         <v>1030</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>45306</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>Jennifer Martinez</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>45310</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>79.98999999999999</v>
@@ -1015,16 +1087,20 @@
       <c r="A21" t="n">
         <v>1031</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>45307</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>Michael Smith</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>45310</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>49.99</v>
@@ -1043,16 +1119,20 @@
       <c r="A22" t="n">
         <v>1034</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>45308</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>Sarah Garcia</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>45310</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
       </c>
       <c r="E22" t="n">
         <v>149.99</v>
@@ -1071,16 +1151,20 @@
       <c r="A23" t="n">
         <v>1035</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>45309</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>Matthew Hernandez</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>45314</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2024-01-23</t>
+        </is>
       </c>
       <c r="E23" t="n">
         <v>69.98999999999999</v>
@@ -1099,16 +1183,20 @@
       <c r="A24" t="n">
         <v>1037</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>45310</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>Daniel Davis</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>45311</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
       </c>
       <c r="E24" t="n">
         <v>199.99</v>
@@ -1127,16 +1215,20 @@
       <c r="A25" t="n">
         <v>1038</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>45310</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>Jennifer Smith</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>45313</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
       </c>
       <c r="E25" t="n">
         <v>29.99</v>
@@ -1155,16 +1247,20 @@
       <c r="A26" t="n">
         <v>1039</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>45311</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>Michael Johnson</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>45315</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>79.98999999999999</v>
@@ -1183,16 +1279,20 @@
       <c r="A27" t="n">
         <v>1040</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>45311</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>Jessica Martinez</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>45312</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2024-01-21</t>
+        </is>
       </c>
       <c r="E27" t="n">
         <v>49.99</v>
@@ -1211,16 +1311,20 @@
       <c r="A28" t="n">
         <v>1043</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>45313</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>Matthew Garcia</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>45316</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
       </c>
       <c r="E28" t="n">
         <v>149.99</v>
@@ -1239,16 +1343,20 @@
       <c r="A29" t="n">
         <v>1044</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>45313</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>Emily Brown</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>45316</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
       </c>
       <c r="E29" t="n">
         <v>69.98999999999999</v>
@@ -1267,16 +1375,20 @@
       <c r="A30" t="n">
         <v>1046</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>45314</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-01-23</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>Jennifer Davis</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>45317</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
       </c>
       <c r="E30" t="n">
         <v>199.99</v>
@@ -1295,16 +1407,20 @@
       <c r="A31" t="n">
         <v>1047</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>45315</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>Michael Martinez</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>45316</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
       </c>
       <c r="E31" t="n">
         <v>29.99</v>
@@ -1323,16 +1439,20 @@
       <c r="A32" t="n">
         <v>1048</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>45315</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>Jessica Wilson</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>45317</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
       </c>
       <c r="E32" t="n">
         <v>79.98999999999999</v>
@@ -1351,16 +1471,20 @@
       <c r="A33" t="n">
         <v>1049</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>45316</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>David Rodriguez</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>45321</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
       </c>
       <c r="E33" t="n">
         <v>49.99</v>
@@ -1379,16 +1503,20 @@
       <c r="A34" t="n">
         <v>1052</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>45317</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>Emily Johnson</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>45319</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2024-01-28</t>
+        </is>
       </c>
       <c r="E34" t="n">
         <v>149.99</v>
@@ -1407,16 +1535,20 @@
       <c r="A35" t="n">
         <v>1053</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>45318</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-01-27</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>Daniel Brown</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>45322</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
       </c>
       <c r="E35" t="n">
         <v>69.98999999999999</v>
@@ -1435,16 +1567,20 @@
       <c r="A36" t="n">
         <v>1055</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>45319</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-01-28</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>Michael Davis</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>45320</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
       </c>
       <c r="E36" t="n">
         <v>199.99</v>
@@ -1463,16 +1599,20 @@
       <c r="A37" t="n">
         <v>1056</v>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>45319</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-01-28</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Jessica Smith</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>45320</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
       </c>
       <c r="E37" t="n">
         <v>29.99</v>
@@ -1491,16 +1631,20 @@
       <c r="A38" t="n">
         <v>1057</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>45320</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>David Martinez</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>45321</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
       </c>
       <c r="E38" t="n">
         <v>79.98999999999999</v>
@@ -1519,16 +1663,20 @@
       <c r="A39" t="n">
         <v>1058</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>45320</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>Sarah Johnson</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>45322</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
       </c>
       <c r="E39" t="n">
         <v>49.99</v>
@@ -1547,16 +1695,20 @@
       <c r="A40" t="n">
         <v>1061</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>45322</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>Daniel Hernandez</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>45324</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
       </c>
       <c r="E40" t="n">
         <v>149.99</v>
@@ -1575,16 +1727,20 @@
       <c r="A41" t="n">
         <v>1062</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>45322</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>Jennifer Davis</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>45326</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2024-02-04</t>
+        </is>
       </c>
       <c r="E41" t="n">
         <v>69.98999999999999</v>
@@ -1603,16 +1759,20 @@
       <c r="A42" t="n">
         <v>1064</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>45323</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>Jessica Wilson</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>45327</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
       </c>
       <c r="E42" t="n">
         <v>199.99</v>
@@ -1631,16 +1791,20 @@
       <c r="A43" t="n">
         <v>1065</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>45323</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>David Rodriguez</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>45325</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
       </c>
       <c r="E43" t="n">
         <v>29.99</v>
@@ -1659,16 +1823,20 @@
       <c r="A44" t="n">
         <v>1066</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>45324</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>Sarah Gonzalez</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>45328</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
       </c>
       <c r="E44" t="n">
         <v>79.98999999999999</v>
@@ -1687,16 +1855,20 @@
       <c r="A45" t="n">
         <v>1067</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>45325</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>Matthew Smith</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>45328</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
       </c>
       <c r="E45" t="n">
         <v>49.99</v>
@@ -1709,34 +1881,6 @@
       </c>
       <c r="H45" t="n">
         <v>164.967</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1070</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>45326</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Jennifer Hernandez</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>45329</v>
-      </c>
-      <c r="E46" t="n">
-        <v>149.99</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>14.999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>164.989</v>
       </c>
     </row>
   </sheetData>
